--- a/botCode/excelDatabase/8class/8class.xlsx
+++ b/botCode/excelDatabase/8class/8class.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Михаил\Desktop\работа\excelDatabase\8class\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="15" windowWidth="18960" windowHeight="11325"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="74">
   <si>
     <r>
       <rPr>
@@ -766,12 +771,15 @@
   </si>
   <si>
     <t>К 3-му уроку</t>
+  </si>
+  <si>
+    <t>перерыв 30 минут</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1021,7 +1029,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1073,6 +1081,24 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1109,12 +1135,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1187,16 +1207,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1259,7 +1270,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1294,7 +1305,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1505,8 +1516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75:C76"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1523,51 +1534,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="17"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="19"/>
+      <c r="A1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25"/>
     </row>
     <row r="2" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="28"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="25"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="31"/>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="28"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="34"/>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1807,18 +1818,18 @@
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="30"/>
+      <c r="B14" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="18"/>
       <c r="D14" s="11"/>
       <c r="E14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="29" t="s">
+      <c r="F14" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="30"/>
+      <c r="G14" s="18"/>
       <c r="H14" s="11"/>
       <c r="I14" s="3"/>
     </row>
@@ -1861,16 +1872,16 @@
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="28"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="34"/>
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2120,10 +2131,10 @@
       <c r="E27" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="29" t="s">
+      <c r="F27" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="G27" s="30"/>
+      <c r="G27" s="18"/>
       <c r="H27" s="11"/>
       <c r="I27" s="3"/>
     </row>
@@ -2160,152 +2171,152 @@
       <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="33"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="37"/>
       <c r="I30" s="3"/>
     </row>
     <row r="31" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="28"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="34"/>
       <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="34"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="36"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="40"/>
       <c r="D32" s="13"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
       <c r="I32" s="14"/>
     </row>
     <row r="33" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="37"/>
-      <c r="B33" s="38"/>
-      <c r="C33" s="39"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
       <c r="D33" s="13"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
       <c r="I33" s="14"/>
     </row>
     <row r="34" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="37"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="39"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
       <c r="D34" s="13"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
       <c r="I34" s="14"/>
     </row>
     <row r="35" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="37"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="39"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="43"/>
       <c r="D35" s="13"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
       <c r="I35" s="14"/>
     </row>
     <row r="36" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="37"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="39"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="43"/>
       <c r="D36" s="13"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
       <c r="I36" s="14"/>
     </row>
     <row r="37" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="37"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="39"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="43"/>
       <c r="D37" s="13"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
       <c r="I37" s="14"/>
     </row>
     <row r="38" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="40"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="42"/>
+      <c r="A38" s="44"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="46"/>
       <c r="D38" s="13"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
       <c r="I38" s="14"/>
     </row>
     <row r="39" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="43" t="s">
+      <c r="A39" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="B39" s="44"/>
-      <c r="C39" s="45"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="49"/>
       <c r="D39" s="13"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
       <c r="I39" s="14"/>
     </row>
     <row r="40" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="46"/>
-      <c r="B40" s="47"/>
-      <c r="C40" s="48"/>
+      <c r="A40" s="50"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="52"/>
       <c r="D40" s="13"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
       <c r="I40" s="14"/>
     </row>
     <row r="41" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="49"/>
-      <c r="B41" s="50"/>
-      <c r="C41" s="51"/>
+      <c r="A41" s="53"/>
+      <c r="B41" s="54"/>
+      <c r="C41" s="55"/>
       <c r="D41" s="13"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
       <c r="I41" s="14"/>
     </row>
     <row r="42" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="52"/>
-      <c r="B42" s="53"/>
-      <c r="C42" s="54"/>
+      <c r="A42" s="56"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="58"/>
       <c r="D42" s="13"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
       <c r="I42" s="14"/>
     </row>
     <row r="43" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2320,29 +2331,29 @@
       <c r="I43" s="3"/>
     </row>
     <row r="44" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="22"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="28"/>
       <c r="I44" s="3"/>
     </row>
     <row r="45" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="26" t="s">
+      <c r="A45" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="28"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="34"/>
       <c r="I45" s="3"/>
     </row>
     <row r="46" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2580,10 +2591,10 @@
       <c r="A55" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B55" s="29" t="s">
+      <c r="B55" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C55" s="30"/>
+      <c r="C55" s="18"/>
       <c r="D55" s="11"/>
       <c r="E55" s="9" t="s">
         <v>36</v>
@@ -2632,29 +2643,29 @@
       <c r="I57" s="3"/>
     </row>
     <row r="58" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="20" t="s">
+      <c r="A58" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="22"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="28"/>
       <c r="I58" s="3"/>
     </row>
     <row r="59" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="26" t="s">
+      <c r="A59" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="27"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="28"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="34"/>
       <c r="I59" s="3"/>
     </row>
     <row r="60" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2944,29 +2955,29 @@
       <c r="I71" s="3"/>
     </row>
     <row r="72" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="20" t="s">
+      <c r="A72" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B72" s="21"/>
-      <c r="C72" s="21"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="21"/>
-      <c r="G72" s="21"/>
-      <c r="H72" s="22"/>
+      <c r="B72" s="27"/>
+      <c r="C72" s="27"/>
+      <c r="D72" s="27"/>
+      <c r="E72" s="27"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="28"/>
       <c r="I72" s="3"/>
     </row>
     <row r="73" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="26" t="s">
+      <c r="A73" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="B73" s="27"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="27"/>
-      <c r="F73" s="27"/>
-      <c r="G73" s="27"/>
-      <c r="H73" s="28"/>
+      <c r="B73" s="33"/>
+      <c r="C73" s="33"/>
+      <c r="D73" s="33"/>
+      <c r="E73" s="33"/>
+      <c r="F73" s="33"/>
+      <c r="G73" s="33"/>
+      <c r="H73" s="34"/>
       <c r="I73" s="3"/>
     </row>
     <row r="74" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3000,10 +3011,10 @@
       <c r="A75" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B75" s="58" t="s">
+      <c r="B75" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C75" s="55"/>
+      <c r="C75" s="19"/>
       <c r="D75" s="11"/>
       <c r="E75" s="9" t="s">
         <v>7</v>
@@ -3023,8 +3034,10 @@
       <c r="A76" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B76" s="56"/>
-      <c r="C76" s="57"/>
+      <c r="B76" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C76" s="20"/>
       <c r="D76" s="11"/>
       <c r="E76" s="9" t="s">
         <v>13</v>
@@ -3202,17 +3215,14 @@
       <c r="I85" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="17">
     <mergeCell ref="A72:H72"/>
     <mergeCell ref="A73:H73"/>
-    <mergeCell ref="B75:C76"/>
     <mergeCell ref="A44:H44"/>
     <mergeCell ref="A45:H45"/>
-    <mergeCell ref="B55:C55"/>
     <mergeCell ref="A58:H58"/>
     <mergeCell ref="A59:H59"/>
     <mergeCell ref="A17:H17"/>
-    <mergeCell ref="F27:G27"/>
     <mergeCell ref="A30:H30"/>
     <mergeCell ref="A31:H31"/>
     <mergeCell ref="A32:C38"/>
@@ -3223,9 +3233,8 @@
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A4:H4"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="F14:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>